--- a/data/scratch/rhoRain.xlsx
+++ b/data/scratch/rhoRain.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melbo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ISU\Project\SoilMove\data\statistics\flume_analysis\data\scratch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2F4E0C-55B6-4724-A16F-16214E9E7D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="12960" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14628" windowHeight="6756"/>
   </bookViews>
   <sheets>
     <sheet name="rhoRain" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -875,11 +874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1774" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G1780" sqref="A1780:G1780"/>
+    <sheetView tabSelected="1" topLeftCell="A744" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G777" sqref="G757:G777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,6 +1986,9 @@
       <c r="D77">
         <v>1E-3</v>
       </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -2001,6 +2003,9 @@
       <c r="D78">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -2015,6 +2020,9 @@
       <c r="D79">
         <v>2E-3</v>
       </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -2029,8 +2037,11 @@
       <c r="D80">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -2043,8 +2054,11 @@
       <c r="D81">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -2060,8 +2074,11 @@
       <c r="E82">
         <v>1013</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -2077,8 +2094,11 @@
       <c r="E83">
         <v>1013</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -2097,8 +2117,11 @@
       <c r="F84">
         <v>1014</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -2117,8 +2140,11 @@
       <c r="F85">
         <v>1014</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -2137,8 +2163,11 @@
       <c r="F86">
         <v>1014</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2157,8 +2186,11 @@
       <c r="F87">
         <v>1014</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -2177,8 +2209,11 @@
       <c r="F88">
         <v>1014</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -2197,8 +2232,11 @@
       <c r="F89">
         <v>1014</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -2217,8 +2255,11 @@
       <c r="F90">
         <v>1014</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>4</v>
       </c>
@@ -2237,8 +2278,11 @@
       <c r="F91">
         <v>1014</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>4</v>
       </c>
@@ -2255,8 +2299,11 @@
       <c r="F92" s="2">
         <v>1014</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -2269,8 +2316,11 @@
       <c r="D93">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2283,8 +2333,11 @@
       <c r="D94">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -2297,8 +2350,11 @@
       <c r="D95">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -2311,6 +2367,9 @@
       <c r="D96">
         <v>1E-3</v>
       </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
@@ -2325,6 +2384,9 @@
       <c r="D97">
         <v>1E-3</v>
       </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
@@ -2339,6 +2401,9 @@
       <c r="D98">
         <v>2E-3</v>
       </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
@@ -2353,6 +2418,9 @@
       <c r="D99">
         <v>2E-3</v>
       </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
@@ -2367,6 +2435,9 @@
       <c r="D100">
         <v>1E-3</v>
       </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
@@ -2381,6 +2452,9 @@
       <c r="D101">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
@@ -2395,6 +2469,9 @@
       <c r="D102">
         <v>1E-3</v>
       </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
@@ -2409,6 +2486,9 @@
       <c r="D103">
         <v>1E-3</v>
       </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
@@ -2423,6 +2503,9 @@
       <c r="D104">
         <v>1E-3</v>
       </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
@@ -2437,6 +2520,9 @@
       <c r="D105">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -2451,6 +2537,9 @@
       <c r="D106">
         <v>1E-3</v>
       </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -2465,6 +2554,9 @@
       <c r="D107">
         <v>2E-3</v>
       </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
@@ -2479,6 +2571,9 @@
       <c r="D108">
         <v>1E-3</v>
       </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
@@ -2492,6 +2587,9 @@
       </c>
       <c r="D109">
         <v>1E-3</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -12178,6 +12276,9 @@
       <c r="D757">
         <v>2E-3</v>
       </c>
+      <c r="G757">
+        <v>1</v>
+      </c>
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
@@ -12192,6 +12293,9 @@
       <c r="D758">
         <v>2E-3</v>
       </c>
+      <c r="G758">
+        <v>1</v>
+      </c>
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
@@ -12206,6 +12310,9 @@
       <c r="D759">
         <v>1E-3</v>
       </c>
+      <c r="G759">
+        <v>1</v>
+      </c>
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
@@ -12220,6 +12327,9 @@
       <c r="D760">
         <v>1E-3</v>
       </c>
+      <c r="G760">
+        <v>1</v>
+      </c>
     </row>
     <row r="761" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
@@ -12234,6 +12344,9 @@
       <c r="D761">
         <v>1E-3</v>
       </c>
+      <c r="G761">
+        <v>1</v>
+      </c>
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
@@ -12248,6 +12361,9 @@
       <c r="D762">
         <v>1E-3</v>
       </c>
+      <c r="G762">
+        <v>1</v>
+      </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
@@ -12262,6 +12378,9 @@
       <c r="D763">
         <v>1E-3</v>
       </c>
+      <c r="G763">
+        <v>1</v>
+      </c>
     </row>
     <row r="764" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
@@ -12276,6 +12395,9 @@
       <c r="D764">
         <v>1E-3</v>
       </c>
+      <c r="G764">
+        <v>1</v>
+      </c>
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
@@ -12290,6 +12412,9 @@
       <c r="D765">
         <v>1E-3</v>
       </c>
+      <c r="G765">
+        <v>1</v>
+      </c>
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
@@ -12304,6 +12429,9 @@
       <c r="D766">
         <v>1E-3</v>
       </c>
+      <c r="G766">
+        <v>1</v>
+      </c>
     </row>
     <row r="767" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
@@ -12318,6 +12446,9 @@
       <c r="D767">
         <v>1E-3</v>
       </c>
+      <c r="G767">
+        <v>1</v>
+      </c>
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
@@ -12332,6 +12463,9 @@
       <c r="D768">
         <v>1E-3</v>
       </c>
+      <c r="G768">
+        <v>1</v>
+      </c>
     </row>
     <row r="769" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
@@ -12346,6 +12480,9 @@
       <c r="D769">
         <v>1E-3</v>
       </c>
+      <c r="G769">
+        <v>1</v>
+      </c>
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
@@ -12360,6 +12497,9 @@
       <c r="D770">
         <v>1E-3</v>
       </c>
+      <c r="G770">
+        <v>1</v>
+      </c>
     </row>
     <row r="771" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
@@ -12374,6 +12514,9 @@
       <c r="D771">
         <v>1E-3</v>
       </c>
+      <c r="G771">
+        <v>1</v>
+      </c>
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
@@ -12388,6 +12531,9 @@
       <c r="D772">
         <v>1E-3</v>
       </c>
+      <c r="G772">
+        <v>1</v>
+      </c>
     </row>
     <row r="773" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
@@ -12402,6 +12548,9 @@
       <c r="D773">
         <v>1E-3</v>
       </c>
+      <c r="G773">
+        <v>1</v>
+      </c>
     </row>
     <row r="774" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
@@ -12416,6 +12565,9 @@
       <c r="D774">
         <v>1E-3</v>
       </c>
+      <c r="G774">
+        <v>1</v>
+      </c>
     </row>
     <row r="775" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
@@ -12430,6 +12582,9 @@
       <c r="D775">
         <v>1E-3</v>
       </c>
+      <c r="G775">
+        <v>1</v>
+      </c>
     </row>
     <row r="776" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
@@ -12444,6 +12599,9 @@
       <c r="D776">
         <v>1E-3</v>
       </c>
+      <c r="G776">
+        <v>1</v>
+      </c>
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
@@ -12457,6 +12615,9 @@
       </c>
       <c r="D777">
         <v>1E-3</v>
+      </c>
+      <c r="G777">
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.3">
@@ -12491,6 +12652,9 @@
       <c r="D779">
         <v>1E-3</v>
       </c>
+      <c r="G779">
+        <v>2</v>
+      </c>
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
@@ -12505,6 +12669,9 @@
       <c r="D780">
         <v>1E-3</v>
       </c>
+      <c r="G780">
+        <v>2</v>
+      </c>
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
@@ -12519,6 +12686,9 @@
       <c r="D781">
         <v>1E-3</v>
       </c>
+      <c r="G781">
+        <v>2</v>
+      </c>
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
@@ -12533,6 +12703,9 @@
       <c r="D782">
         <v>2E-3</v>
       </c>
+      <c r="G782">
+        <v>2</v>
+      </c>
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
@@ -12547,6 +12720,9 @@
       <c r="D783">
         <v>1E-3</v>
       </c>
+      <c r="G783">
+        <v>2</v>
+      </c>
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
@@ -12561,8 +12737,11 @@
       <c r="D784">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G784">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>4</v>
       </c>
@@ -12578,8 +12757,11 @@
       <c r="E785">
         <v>3017</v>
       </c>
-    </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G785">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="786" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>4</v>
       </c>
@@ -12595,8 +12777,11 @@
       <c r="E786">
         <v>3017</v>
       </c>
-    </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G786">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>4</v>
       </c>
@@ -12612,8 +12797,11 @@
       <c r="E787">
         <v>3017</v>
       </c>
-    </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G787">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>4</v>
       </c>
@@ -12629,8 +12817,11 @@
       <c r="E788">
         <v>3017</v>
       </c>
-    </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G788">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="789" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>4</v>
       </c>
@@ -12646,8 +12837,11 @@
       <c r="E789">
         <v>3017</v>
       </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G789">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>4</v>
       </c>
@@ -12663,8 +12857,11 @@
       <c r="E790">
         <v>3017</v>
       </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G790">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="791" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>4</v>
       </c>
@@ -12680,8 +12877,11 @@
       <c r="E791">
         <v>3017</v>
       </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>4</v>
       </c>
@@ -12697,8 +12897,11 @@
       <c r="E792">
         <v>3017</v>
       </c>
-    </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G792">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="793" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>4</v>
       </c>
@@ -12714,8 +12917,11 @@
       <c r="E793">
         <v>3017</v>
       </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G793">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="794" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>4</v>
       </c>
@@ -12731,8 +12937,11 @@
       <c r="E794">
         <v>3017</v>
       </c>
-    </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G794">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>4</v>
       </c>
@@ -12748,8 +12957,11 @@
       <c r="E795">
         <v>3017</v>
       </c>
-    </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G795">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="796" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>4</v>
       </c>
@@ -12765,8 +12977,11 @@
       <c r="E796">
         <v>3017</v>
       </c>
-    </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G796">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="797" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>4</v>
       </c>
@@ -12782,8 +12997,11 @@
       <c r="E797">
         <v>3017</v>
       </c>
-    </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G797">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="798" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>4</v>
       </c>
@@ -12799,8 +13017,11 @@
       <c r="E798">
         <v>3017</v>
       </c>
-    </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G798">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="799" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>4</v>
       </c>
@@ -12816,8 +13037,11 @@
       <c r="E799">
         <v>3017</v>
       </c>
-    </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G799">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="800" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>4</v>
       </c>
@@ -12833,8 +13057,11 @@
       <c r="E800">
         <v>3017</v>
       </c>
-    </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G800">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="801" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>4</v>
       </c>
@@ -12850,8 +13077,11 @@
       <c r="E801">
         <v>3017</v>
       </c>
-    </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G801">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="802" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>4</v>
       </c>
@@ -12867,8 +13097,11 @@
       <c r="E802">
         <v>3017</v>
       </c>
-    </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G802">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="803" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>4</v>
       </c>
@@ -12884,8 +13117,11 @@
       <c r="E803">
         <v>3017</v>
       </c>
-    </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G803">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>4</v>
       </c>
@@ -12901,8 +13137,11 @@
       <c r="E804">
         <v>3017</v>
       </c>
-    </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G804">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="805" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>4</v>
       </c>
@@ -12918,8 +13157,11 @@
       <c r="E805">
         <v>3017</v>
       </c>
-    </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G805">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="806" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>4</v>
       </c>
@@ -12935,8 +13177,11 @@
       <c r="E806">
         <v>3017</v>
       </c>
-    </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G806">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="807" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>4</v>
       </c>
@@ -12952,8 +13197,11 @@
       <c r="E807">
         <v>3017</v>
       </c>
-    </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G807">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="808" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>4</v>
       </c>
@@ -12969,8 +13217,11 @@
       <c r="E808">
         <v>3017</v>
       </c>
-    </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>4</v>
       </c>
@@ -12986,8 +13237,11 @@
       <c r="E809">
         <v>3017</v>
       </c>
-    </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G809">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="810" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>4</v>
       </c>
@@ -13003,8 +13257,11 @@
       <c r="E810">
         <v>3017</v>
       </c>
-    </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="811" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>4</v>
       </c>
@@ -13020,8 +13277,11 @@
       <c r="E811">
         <v>3017</v>
       </c>
-    </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G811">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="812" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>4</v>
       </c>
@@ -13037,8 +13297,11 @@
       <c r="E812">
         <v>3017</v>
       </c>
-    </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G812">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="813" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>4</v>
       </c>
@@ -13054,8 +13317,11 @@
       <c r="E813">
         <v>3017</v>
       </c>
-    </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G813">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="814" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>4</v>
       </c>
@@ -13071,8 +13337,11 @@
       <c r="E814">
         <v>3017</v>
       </c>
-    </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G814">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>4</v>
       </c>
@@ -13088,8 +13357,11 @@
       <c r="E815">
         <v>3017</v>
       </c>
-    </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G815">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="816" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>4</v>
       </c>
@@ -13105,8 +13377,11 @@
       <c r="E816">
         <v>3017</v>
       </c>
-    </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="817" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>4</v>
       </c>
@@ -13122,8 +13397,11 @@
       <c r="E817">
         <v>3017</v>
       </c>
-    </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G817">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="818" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>4</v>
       </c>
@@ -13139,8 +13417,11 @@
       <c r="E818">
         <v>3017</v>
       </c>
-    </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G818">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>4</v>
       </c>
@@ -13156,8 +13437,11 @@
       <c r="E819">
         <v>3017</v>
       </c>
-    </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G819">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="820" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>4</v>
       </c>
@@ -13173,8 +13457,11 @@
       <c r="E820">
         <v>3017</v>
       </c>
-    </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G820">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="821" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>4</v>
       </c>
@@ -13190,8 +13477,11 @@
       <c r="E821">
         <v>3017</v>
       </c>
-    </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G821">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="822" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>4</v>
       </c>
@@ -13207,8 +13497,11 @@
       <c r="E822">
         <v>3017</v>
       </c>
-    </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G822">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="823" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>4</v>
       </c>
@@ -13224,8 +13517,11 @@
       <c r="E823">
         <v>3017</v>
       </c>
-    </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G823">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>4</v>
       </c>
@@ -13241,8 +13537,11 @@
       <c r="E824">
         <v>3017</v>
       </c>
-    </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G824">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>4</v>
       </c>
@@ -13258,8 +13557,11 @@
       <c r="E825">
         <v>3017</v>
       </c>
-    </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G825">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>4</v>
       </c>
@@ -13275,8 +13577,11 @@
       <c r="E826">
         <v>3017</v>
       </c>
-    </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G826">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="827" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>4</v>
       </c>
@@ -13292,8 +13597,11 @@
       <c r="E827">
         <v>3017</v>
       </c>
-    </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G827">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="828" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>4</v>
       </c>
@@ -13309,8 +13617,11 @@
       <c r="E828">
         <v>3017</v>
       </c>
-    </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G828">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>4</v>
       </c>
@@ -13326,8 +13637,11 @@
       <c r="E829">
         <v>3017</v>
       </c>
-    </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G829">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A830" s="2" t="s">
         <v>4</v>
       </c>
@@ -13343,8 +13657,11 @@
       <c r="E830" s="2">
         <v>3017</v>
       </c>
-    </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G830">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="831" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>4</v>
       </c>
@@ -13357,8 +13674,11 @@
       <c r="D831">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G831">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="832" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>4</v>
       </c>
@@ -13371,8 +13691,11 @@
       <c r="D832">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G832">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>4</v>
       </c>
@@ -13385,8 +13708,11 @@
       <c r="D833">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G833">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>4</v>
       </c>
@@ -13399,8 +13725,11 @@
       <c r="D834">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G834">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>4</v>
       </c>
@@ -13413,8 +13742,11 @@
       <c r="D835">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G835">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="836" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>4</v>
       </c>
@@ -13427,8 +13759,11 @@
       <c r="D836">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G836">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="837" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>4</v>
       </c>
@@ -13441,8 +13776,11 @@
       <c r="D837">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G837">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>4</v>
       </c>
@@ -13455,8 +13793,11 @@
       <c r="D838">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G838">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>4</v>
       </c>
@@ -13469,8 +13810,11 @@
       <c r="D839">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G839">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>4</v>
       </c>
@@ -13483,8 +13827,11 @@
       <c r="D840">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G840">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>4</v>
       </c>
@@ -13497,8 +13844,11 @@
       <c r="D841">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G841">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>4</v>
       </c>
@@ -13511,8 +13861,11 @@
       <c r="D842">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G842">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>4</v>
       </c>
@@ -13525,8 +13878,11 @@
       <c r="D843">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G843">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A844" t="s">
         <v>4</v>
       </c>
@@ -13539,8 +13895,11 @@
       <c r="D844">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G844">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>4</v>
       </c>
@@ -13553,8 +13912,11 @@
       <c r="D845">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G845">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>4</v>
       </c>
@@ -13567,8 +13929,11 @@
       <c r="D846">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G846">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="847" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>4</v>
       </c>
@@ -13581,8 +13946,11 @@
       <c r="D847">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G847">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="848" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>4</v>
       </c>
@@ -13595,6 +13963,9 @@
       <c r="D848">
         <v>2E-3</v>
       </c>
+      <c r="G848">
+        <v>2</v>
+      </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
@@ -13609,6 +13980,9 @@
       <c r="D849">
         <v>1E-3</v>
       </c>
+      <c r="G849">
+        <v>2</v>
+      </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
@@ -13626,6 +14000,9 @@
       <c r="E850">
         <v>3021</v>
       </c>
+      <c r="G850">
+        <v>2</v>
+      </c>
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
@@ -13643,6 +14020,9 @@
       <c r="E851">
         <v>3021</v>
       </c>
+      <c r="G851">
+        <v>2</v>
+      </c>
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
@@ -13660,6 +14040,9 @@
       <c r="E852">
         <v>3021</v>
       </c>
+      <c r="G852">
+        <v>2</v>
+      </c>
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
@@ -13677,6 +14060,9 @@
       <c r="E853">
         <v>3021</v>
       </c>
+      <c r="G853">
+        <v>2</v>
+      </c>
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
@@ -13694,6 +14080,9 @@
       <c r="E854">
         <v>3021</v>
       </c>
+      <c r="G854">
+        <v>2</v>
+      </c>
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
@@ -13711,6 +14100,9 @@
       <c r="E855">
         <v>3021</v>
       </c>
+      <c r="G855">
+        <v>2</v>
+      </c>
     </row>
     <row r="856" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
@@ -13727,6 +14119,9 @@
       </c>
       <c r="E856">
         <v>3021</v>
+      </c>
+      <c r="G856">
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -13766,6 +14161,9 @@
       <c r="E858">
         <v>3021</v>
       </c>
+      <c r="G858">
+        <v>3</v>
+      </c>
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
@@ -13783,6 +14181,9 @@
       <c r="E859">
         <v>3021</v>
       </c>
+      <c r="G859">
+        <v>3</v>
+      </c>
     </row>
     <row r="860" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A860" s="2" t="s">
@@ -13800,6 +14201,9 @@
       <c r="E860" s="2">
         <v>3021</v>
       </c>
+      <c r="G860">
+        <v>3</v>
+      </c>
     </row>
     <row r="861" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
@@ -13814,6 +14218,9 @@
       <c r="D861">
         <v>1E-3</v>
       </c>
+      <c r="G861">
+        <v>3</v>
+      </c>
     </row>
     <row r="862" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
@@ -13828,6 +14235,9 @@
       <c r="D862">
         <v>1E-3</v>
       </c>
+      <c r="G862">
+        <v>3</v>
+      </c>
     </row>
     <row r="863" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
@@ -13842,6 +14252,9 @@
       <c r="D863">
         <v>1E-3</v>
       </c>
+      <c r="G863">
+        <v>3</v>
+      </c>
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
@@ -13859,8 +14272,11 @@
       <c r="F864">
         <v>3024</v>
       </c>
-    </row>
-    <row r="865" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G864">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>4</v>
       </c>
@@ -13876,8 +14292,11 @@
       <c r="F865">
         <v>3024</v>
       </c>
-    </row>
-    <row r="866" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>4</v>
       </c>
@@ -13893,8 +14312,11 @@
       <c r="F866">
         <v>3024</v>
       </c>
-    </row>
-    <row r="867" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G866">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="867" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>4</v>
       </c>
@@ -13910,8 +14332,11 @@
       <c r="F867">
         <v>3024</v>
       </c>
-    </row>
-    <row r="868" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G867">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="868" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A868" s="2" t="s">
         <v>4</v>
       </c>
@@ -13928,8 +14353,11 @@
       <c r="F868" s="2">
         <v>3024</v>
       </c>
-    </row>
-    <row r="869" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G868">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="869" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>4</v>
       </c>
@@ -13942,8 +14370,11 @@
       <c r="D869">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="870" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G869">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="870" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A870" t="s">
         <v>4</v>
       </c>
@@ -13956,8 +14387,11 @@
       <c r="D870">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="871" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G870">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
         <v>4</v>
       </c>
@@ -13970,8 +14404,11 @@
       <c r="D871">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="872" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G871">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
         <v>4</v>
       </c>
@@ -13984,8 +14421,11 @@
       <c r="D872">
         <v>2E-3</v>
       </c>
-    </row>
-    <row r="873" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G872">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="873" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
         <v>4</v>
       </c>
@@ -13998,8 +14438,11 @@
       <c r="D873">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="874" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G873">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="874" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
         <v>4</v>
       </c>
@@ -14012,8 +14455,11 @@
       <c r="D874">
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="875" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G874">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="875" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
         <v>4</v>
       </c>
@@ -14026,8 +14472,11 @@
       <c r="D875">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="876" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G875">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="876" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
         <v>4</v>
       </c>
@@ -14046,8 +14495,11 @@
       <c r="F876">
         <v>3029</v>
       </c>
-    </row>
-    <row r="877" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G876">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="877" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
         <v>4</v>
       </c>
@@ -14066,8 +14518,11 @@
       <c r="F877">
         <v>3029</v>
       </c>
-    </row>
-    <row r="878" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G877">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="878" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
         <v>4</v>
       </c>
@@ -14086,8 +14541,11 @@
       <c r="F878">
         <v>3029</v>
       </c>
-    </row>
-    <row r="879" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G878">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="879" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
         <v>4</v>
       </c>
@@ -14106,8 +14564,11 @@
       <c r="F879">
         <v>3029</v>
       </c>
-    </row>
-    <row r="880" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G879">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="880" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
         <v>4</v>
       </c>
@@ -14126,8 +14587,11 @@
       <c r="F880">
         <v>3029</v>
       </c>
-    </row>
-    <row r="881" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A881" t="s">
         <v>4</v>
       </c>
@@ -14146,8 +14610,11 @@
       <c r="F881">
         <v>3029</v>
       </c>
-    </row>
-    <row r="882" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G881">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="882" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A882" t="s">
         <v>4</v>
       </c>
@@ -14166,8 +14633,11 @@
       <c r="F882">
         <v>3029</v>
       </c>
-    </row>
-    <row r="883" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A883" t="s">
         <v>4</v>
       </c>
@@ -14186,8 +14656,11 @@
       <c r="F883">
         <v>3029</v>
       </c>
-    </row>
-    <row r="884" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G883">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="884" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A884" t="s">
         <v>4</v>
       </c>
@@ -14206,8 +14679,11 @@
       <c r="F884">
         <v>3029</v>
       </c>
-    </row>
-    <row r="885" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G884">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="885" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A885" t="s">
         <v>4</v>
       </c>
@@ -14226,8 +14702,11 @@
       <c r="F885">
         <v>3029</v>
       </c>
-    </row>
-    <row r="886" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
         <v>4</v>
       </c>
@@ -14246,8 +14725,11 @@
       <c r="F886">
         <v>3029</v>
       </c>
-    </row>
-    <row r="887" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G886">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A887" t="s">
         <v>4</v>
       </c>
@@ -14266,8 +14748,11 @@
       <c r="F887">
         <v>3029</v>
       </c>
-    </row>
-    <row r="888" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A888" t="s">
         <v>4</v>
       </c>
@@ -14286,8 +14771,11 @@
       <c r="F888">
         <v>3029</v>
       </c>
-    </row>
-    <row r="889" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G888">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="889" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A889" t="s">
         <v>4</v>
       </c>
@@ -14306,8 +14794,11 @@
       <c r="F889">
         <v>3029</v>
       </c>
-    </row>
-    <row r="890" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G889">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="890" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A890" t="s">
         <v>4</v>
       </c>
@@ -14326,8 +14817,11 @@
       <c r="F890">
         <v>3029</v>
       </c>
-    </row>
-    <row r="891" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G890">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A891" t="s">
         <v>4</v>
       </c>
@@ -14346,8 +14840,11 @@
       <c r="F891">
         <v>3029</v>
       </c>
-    </row>
-    <row r="892" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G891">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A892" t="s">
         <v>4</v>
       </c>
@@ -14366,8 +14863,11 @@
       <c r="F892">
         <v>3029</v>
       </c>
-    </row>
-    <row r="893" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A893" t="s">
         <v>4</v>
       </c>
@@ -14386,8 +14886,11 @@
       <c r="F893">
         <v>3029</v>
       </c>
-    </row>
-    <row r="894" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A894" t="s">
         <v>4</v>
       </c>
@@ -14406,8 +14909,11 @@
       <c r="F894">
         <v>3029</v>
       </c>
-    </row>
-    <row r="895" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A895" t="s">
         <v>4</v>
       </c>
@@ -14426,8 +14932,11 @@
       <c r="F895">
         <v>3029</v>
       </c>
-    </row>
-    <row r="896" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G895">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A896" t="s">
         <v>4</v>
       </c>
@@ -14446,8 +14955,11 @@
       <c r="F896">
         <v>3029</v>
       </c>
-    </row>
-    <row r="897" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G896">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A897" t="s">
         <v>4</v>
       </c>
@@ -14466,8 +14978,11 @@
       <c r="F897">
         <v>3029</v>
       </c>
-    </row>
-    <row r="898" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G897">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="898" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A898" t="s">
         <v>4</v>
       </c>
@@ -14486,8 +15001,11 @@
       <c r="F898">
         <v>3029</v>
       </c>
-    </row>
-    <row r="899" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G898">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="899" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A899" s="2" t="s">
         <v>4</v>
       </c>
@@ -14506,8 +15024,11 @@
       <c r="F899">
         <v>3029</v>
       </c>
-    </row>
-    <row r="900" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G899">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="900" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A900" s="4" t="s">
         <v>4</v>
       </c>
@@ -14523,8 +15044,14 @@
       <c r="E900" s="4">
         <v>3037</v>
       </c>
-    </row>
-    <row r="901" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F900">
+        <v>3029</v>
+      </c>
+      <c r="G900">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="901" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A901" s="2" t="s">
         <v>4</v>
       </c>
@@ -14543,8 +15070,11 @@
       <c r="F901" s="2">
         <v>3029</v>
       </c>
-    </row>
-    <row r="902" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G901">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A902" t="s">
         <v>4</v>
       </c>
@@ -14560,8 +15090,11 @@
       <c r="E902" s="4">
         <v>3037</v>
       </c>
-    </row>
-    <row r="903" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G902">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A903" t="s">
         <v>4</v>
       </c>
@@ -14577,8 +15110,11 @@
       <c r="E903" s="4">
         <v>3037</v>
       </c>
-    </row>
-    <row r="904" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G903">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A904" t="s">
         <v>4</v>
       </c>
@@ -14594,8 +15130,11 @@
       <c r="E904" s="4">
         <v>3037</v>
       </c>
-    </row>
-    <row r="905" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G904">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
         <v>4</v>
       </c>
@@ -14611,8 +15150,11 @@
       <c r="E905" s="4">
         <v>3037</v>
       </c>
-    </row>
-    <row r="906" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G905">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
         <v>4</v>
       </c>
@@ -14628,8 +15170,11 @@
       <c r="E906" s="4">
         <v>3037</v>
       </c>
-    </row>
-    <row r="907" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G906">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A907" t="s">
         <v>4</v>
       </c>
@@ -14648,8 +15193,11 @@
       <c r="F907" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="908" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G907">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
         <v>4</v>
       </c>
@@ -14668,8 +15216,11 @@
       <c r="F908" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="909" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G908">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A909" t="s">
         <v>4</v>
       </c>
@@ -14688,8 +15239,11 @@
       <c r="F909" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="910" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G909">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
         <v>4</v>
       </c>
@@ -14708,8 +15262,11 @@
       <c r="F910" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="911" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G910">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
         <v>4</v>
       </c>
@@ -14728,8 +15285,11 @@
       <c r="F911" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="912" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G911">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A912" t="s">
         <v>4</v>
       </c>
@@ -14748,8 +15308,11 @@
       <c r="F912" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="913" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G912">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A913" t="s">
         <v>4</v>
       </c>
@@ -14768,8 +15331,11 @@
       <c r="F913" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="914" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G913">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A914" t="s">
         <v>4</v>
       </c>
@@ -14788,8 +15354,11 @@
       <c r="F914" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="915" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G914">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A915" t="s">
         <v>4</v>
       </c>
@@ -14808,8 +15377,11 @@
       <c r="F915" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="916" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G915">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>4</v>
       </c>
@@ -14828,8 +15400,11 @@
       <c r="F916" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="917" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G916">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A917" t="s">
         <v>4</v>
       </c>
@@ -14848,8 +15423,11 @@
       <c r="F917" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="918" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G917">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A918" t="s">
         <v>4</v>
       </c>
@@ -14868,8 +15446,11 @@
       <c r="F918" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="919" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G918">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A919" t="s">
         <v>4</v>
       </c>
@@ -14888,8 +15469,11 @@
       <c r="F919" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="920" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G919">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A920" t="s">
         <v>4</v>
       </c>
@@ -14908,8 +15492,11 @@
       <c r="F920" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="921" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G920">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A921" t="s">
         <v>4</v>
       </c>
@@ -14928,8 +15515,11 @@
       <c r="F921" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="922" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G921">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A922" t="s">
         <v>4</v>
       </c>
@@ -14948,8 +15538,11 @@
       <c r="F922" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="923" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G922">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A923" t="s">
         <v>4</v>
       </c>
@@ -14968,8 +15561,11 @@
       <c r="F923" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="924" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G923">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A924" t="s">
         <v>4</v>
       </c>
@@ -14988,8 +15584,11 @@
       <c r="F924" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="925" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G924">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A925" t="s">
         <v>4</v>
       </c>
@@ -15008,8 +15607,11 @@
       <c r="F925" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="926" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G925">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>4</v>
       </c>
@@ -15028,8 +15630,11 @@
       <c r="F926" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="927" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G926">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A927" t="s">
         <v>4</v>
       </c>
@@ -15048,8 +15653,11 @@
       <c r="F927" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="928" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G927">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>4</v>
       </c>
@@ -15068,8 +15676,11 @@
       <c r="F928" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="929" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G928">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A929" t="s">
         <v>4</v>
       </c>
@@ -15088,8 +15699,11 @@
       <c r="F929" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="930" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G929">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
         <v>4</v>
       </c>
@@ -15108,8 +15722,11 @@
       <c r="F930" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="931" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G930">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
         <v>4</v>
       </c>
@@ -15128,8 +15745,11 @@
       <c r="F931" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="932" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G931">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
         <v>4</v>
       </c>
@@ -15148,8 +15768,11 @@
       <c r="F932" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="933" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G932">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A933" t="s">
         <v>4</v>
       </c>
@@ -15168,8 +15791,11 @@
       <c r="F933" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="934" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G933">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A934" t="s">
         <v>4</v>
       </c>
@@ -15188,8 +15814,11 @@
       <c r="F934" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="935" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G934">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A935" t="s">
         <v>4</v>
       </c>
@@ -15208,8 +15837,11 @@
       <c r="F935" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="936" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G935">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
         <v>4</v>
       </c>
@@ -15228,8 +15860,11 @@
       <c r="F936" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="937" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A937" t="s">
         <v>4</v>
       </c>
@@ -15248,8 +15883,11 @@
       <c r="F937" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="938" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G937">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A938" t="s">
         <v>4</v>
       </c>
@@ -15268,8 +15906,11 @@
       <c r="F938" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="939" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G938">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A939" t="s">
         <v>4</v>
       </c>
@@ -15288,8 +15929,11 @@
       <c r="F939" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="940" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G939">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A940" t="s">
         <v>4</v>
       </c>
@@ -15308,8 +15952,11 @@
       <c r="F940" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="941" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G940">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A941" t="s">
         <v>4</v>
       </c>
@@ -15328,8 +15975,11 @@
       <c r="F941" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="942" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G941">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A942" t="s">
         <v>4</v>
       </c>
@@ -15348,8 +15998,11 @@
       <c r="F942" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="943" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G942">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A943" t="s">
         <v>4</v>
       </c>
@@ -15368,8 +16021,11 @@
       <c r="F943" s="4">
         <v>3038</v>
       </c>
-    </row>
-    <row r="944" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G943">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A944" t="s">
         <v>4</v>
       </c>
@@ -15388,6 +16044,9 @@
       <c r="F944" s="4">
         <v>3038</v>
       </c>
+      <c r="G944">
+        <v>3</v>
+      </c>
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A945" t="s">
@@ -15408,6 +16067,9 @@
       <c r="F945" s="4">
         <v>3038</v>
       </c>
+      <c r="G945">
+        <v>3</v>
+      </c>
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A946" t="s">
@@ -15428,6 +16090,9 @@
       <c r="F946" s="4">
         <v>3038</v>
       </c>
+      <c r="G946">
+        <v>3</v>
+      </c>
     </row>
     <row r="947" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A947" s="2" t="s">
@@ -15447,6 +16112,9 @@
       </c>
       <c r="F947" s="4">
         <v>3038</v>
+      </c>
+      <c r="G947">
+        <v>3</v>
       </c>
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.3">
@@ -15465,6 +16133,9 @@
       <c r="E948" s="2"/>
       <c r="F948" s="2">
         <v>3038</v>
+      </c>
+      <c r="G948">
+        <v>3</v>
       </c>
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.3">

--- a/data/scratch/rhoRain.xlsx
+++ b/data/scratch/rhoRain.xlsx
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A744" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G777" sqref="G757:G777"/>
+    <sheetView tabSelected="1" topLeftCell="A1609" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F1617" sqref="F1617:F1627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27577,6 +27577,9 @@
       <c r="D1618">
         <v>5.0000000000000001E-3</v>
       </c>
+      <c r="F1618">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1619" t="s">
@@ -27591,6 +27594,9 @@
       <c r="D1619">
         <v>4.0000000000000001E-3</v>
       </c>
+      <c r="F1619">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1620" t="s">
@@ -27605,6 +27611,9 @@
       <c r="D1620">
         <v>2E-3</v>
       </c>
+      <c r="F1620">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1621" t="s">
@@ -27622,6 +27631,9 @@
       <c r="E1621">
         <v>5005</v>
       </c>
+      <c r="F1621">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1622" t="s">
@@ -27639,6 +27651,9 @@
       <c r="E1622">
         <v>5005</v>
       </c>
+      <c r="F1622">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1623" t="s">
@@ -27656,6 +27671,9 @@
       <c r="E1623">
         <v>5005</v>
       </c>
+      <c r="F1623">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1624" t="s">
@@ -27673,6 +27691,9 @@
       <c r="E1624">
         <v>5005</v>
       </c>
+      <c r="F1624">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1625" t="s">
@@ -27690,6 +27711,9 @@
       <c r="E1625">
         <v>5005</v>
       </c>
+      <c r="F1625">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1626" t="s">
@@ -27707,6 +27731,9 @@
       <c r="E1626">
         <v>5005</v>
       </c>
+      <c r="F1626">
+        <v>5006</v>
+      </c>
     </row>
     <row r="1627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1627" s="2" t="s">
@@ -27723,6 +27750,9 @@
       </c>
       <c r="E1627" s="2">
         <v>5005</v>
+      </c>
+      <c r="F1627">
+        <v>5006</v>
       </c>
     </row>
     <row r="1628" spans="1:7" x14ac:dyDescent="0.3">
